--- a/data/trans_bre/P20D2_R_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20D2_R_2023-Edad-trans_bre.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-20.57802485448572</v>
+        <v>-20.57802485448573</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-0.4908405757227045</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-72.90622695588321</v>
+        <v>-68.69429822880981</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.79688399833772</v>
+        <v>23.96766622770547</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-55.23788496933444</v>
+        <v>-59.99989302605949</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7241127432782811</v>
+        <v>-0.7495404474308213</v>
       </c>
     </row>
     <row r="15">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.248993636757254</v>
+        <v>3.471026700947551</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1244723235669156</v>
+        <v>0.0455227643630163</v>
       </c>
     </row>
     <row r="16">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-44.46374088896513</v>
+        <v>-44.46374088896515</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>-0.5607064931104578</v>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-70.81569807925496</v>
+        <v>-69.11175760607205</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.8123895930110139</v>
+        <v>-0.8101445575241222</v>
       </c>
     </row>
     <row r="18">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.05577417199781</v>
+        <v>-12.04840150957055</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.1491246919959884</v>
+        <v>-0.1877949876511248</v>
       </c>
     </row>
     <row r="19">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>-33.1564320245063</v>
+        <v>-33.15643202450629</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.395238318330661</v>
+        <v>-0.3952383183306609</v>
       </c>
     </row>
     <row r="20">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-68.34895920759151</v>
+        <v>-69.11255363167515</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7844251818776845</v>
+        <v>-0.7877942701613381</v>
       </c>
     </row>
     <row r="21">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-1.439010085210361</v>
+        <v>2.161289800244437</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01451304641143023</v>
+        <v>0.02704494792155351</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-18.07503081905825</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.2951910264729818</v>
+        <v>-0.2951910264729817</v>
       </c>
     </row>
     <row r="23">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-52.69309108289087</v>
+        <v>-54.8147126904766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.6590154403839271</v>
+        <v>-0.6697040858999921</v>
       </c>
     </row>
     <row r="24">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>28.58436761337602</v>
+        <v>27.49006804192533</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.7387389884674657</v>
+        <v>0.8505809202414073</v>
       </c>
     </row>
     <row r="25">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>-31.09355920023884</v>
+        <v>-31.09355920023885</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.43299870539004</v>
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-46.27716417408939</v>
+        <v>-44.99937950378052</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6046898080060497</v>
+        <v>-0.5913017563305142</v>
       </c>
     </row>
     <row r="27">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-13.8771835829616</v>
+        <v>-11.74357051647178</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2106427779026729</v>
+        <v>-0.1731845288358201</v>
       </c>
     </row>
     <row r="28">
